--- a/ru/downloads/data-excel/4.c.1.xlsx
+++ b/ru/downloads/data-excel/4.c.1.xlsx
@@ -28,15 +28,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>4.c.1.1  Доля дипломированных учителей в образовательных учереждениях</t>
-  </si>
-  <si>
-    <t>4.с.1.1 Билим берүү мекемелерде диплом берилгем мугалимдердин үлүшү</t>
-  </si>
-  <si>
-    <t>4.c.1.1 Proportion of certified teachers in educational institutions</t>
-  </si>
-  <si>
     <t>а) мектепке чейинки билим берүү уюмдарында</t>
   </si>
   <si>
@@ -68,12 +59,24 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>4.с.1 Билим берүү мекемелерде диплом берилгем мугалимдердин үлүшү</t>
+  </si>
+  <si>
+    <t>4.c.1 Доля дипломированных учителей в образовательных учереждениях</t>
+  </si>
+  <si>
+    <t>4.c.1 Proportion of certified teachers in educational institutions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,9 +181,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -193,6 +193,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -509,29 +512,29 @@
     <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
@@ -545,173 +548,212 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10">
         <v>2010</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
+        <v>2011</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="10">
         <v>2013</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="10">
         <v>2014</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="10">
         <v>2015</v>
       </c>
-      <c r="H4" s="7">
+      <c r="J4" s="10">
         <v>2016</v>
       </c>
-      <c r="I4" s="7">
+      <c r="K4" s="10">
         <v>2017</v>
       </c>
-      <c r="J4" s="7">
+      <c r="L4" s="10">
         <v>2018</v>
       </c>
-      <c r="K4" s="7">
+      <c r="M4" s="10">
         <v>2019</v>
       </c>
-      <c r="L4" s="7">
+      <c r="N4" s="10">
         <v>2020</v>
       </c>
-      <c r="M4" s="11">
+      <c r="O4" s="10">
         <v>2021</v>
       </c>
+      <c r="P4" s="10">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11">
         <v>87.9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="13">
+        <v>89.6</v>
+      </c>
+      <c r="F5" s="13">
+        <v>87.5</v>
+      </c>
+      <c r="G5" s="11">
         <v>88.8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="11">
         <v>89.8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="11">
         <v>94.7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="11">
         <v>91.6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="11">
         <v>93.4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="11">
         <v>93.5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="11">
         <v>93.6</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="11">
         <v>94.5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="O5" s="11">
         <v>93.5</v>
       </c>
+      <c r="P5" s="11">
+        <v>94.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
         <v>93.6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="13">
+        <v>93.3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>93.9</v>
+      </c>
+      <c r="G6" s="11">
         <v>94.3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="11">
         <v>94.4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="11">
         <v>95</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="11">
         <v>95.4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="11">
         <v>96</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="11">
         <v>96.4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="11">
         <v>96.3</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="11">
         <v>96.7</v>
       </c>
-      <c r="M6" s="12">
+      <c r="O6" s="11">
         <v>96.6</v>
       </c>
+      <c r="P6" s="14">
+        <v>96</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12">
         <v>92.9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="15">
+        <v>92.8</v>
+      </c>
+      <c r="F7" s="15">
+        <v>94.1</v>
+      </c>
+      <c r="G7" s="12">
         <v>94.8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="12">
         <v>95.3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="I7" s="12">
         <v>95.9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="J7" s="12">
         <v>96.9</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="12">
         <v>97.9</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="12">
         <v>98</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="12">
         <v>98</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="12">
         <v>98.2</v>
       </c>
-      <c r="M7" s="13">
+      <c r="O7" s="12">
         <v>98.1</v>
       </c>
+      <c r="P7" s="12">
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="10"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
